--- a/docs/BAM_flux_sens_segment.xlsx
+++ b/docs/BAM_flux_sens_segment.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aelhammouch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aelhammouch\simulateur-rh-V2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A186E8-C188-4CF0-B69E-14EFE8D541EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0466D9E-BC20-40EF-B6E5-B2B0E1FA6F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TACHES" sheetId="1" r:id="rId1"/>
-    <sheet name="_LISTS" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="CENTRE_TEST" sheetId="3" r:id="rId2"/>
+    <sheet name="code" sheetId="4" r:id="rId3"/>
+    <sheet name="_LISTS" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TACHES!$B$1:$H$70</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="116">
   <si>
     <t>seq</t>
   </si>
@@ -315,13 +317,70 @@
   </si>
   <si>
     <t>Guichet</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>flux_id</t>
+  </si>
+  <si>
+    <t>sens_id</t>
+  </si>
+  <si>
+    <t>segment_id</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>id_tache</t>
+  </si>
+  <si>
+    <t>unite_mesure(flux_code</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Particulier</t>
+  </si>
+  <si>
+    <t>Pro - B2B</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Axes</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>Arrivée</t>
+  </si>
+  <si>
+    <t>Dépôt</t>
+  </si>
+  <si>
+    <t>Récupération</t>
+  </si>
+  <si>
+    <t>Départ</t>
+  </si>
+  <si>
+    <t>GUICHET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +394,30 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,10 +429,40 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -361,10 +472,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,9 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,19 +815,19 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2606,6 +2728,2573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E5C9C8-7E41-4C55-B707-C1598BF8D94F}">
+  <dimension ref="A1:L70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>4966</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>4967</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>4968</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4969</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4970</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8285</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4971</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4972</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4973</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.24666666666666701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4974</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4975</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4976</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4977</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4978</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4979</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4980</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.35666666666666702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4981</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4982</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4983</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4984</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.198333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4985</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4986</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.21666666666666701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4987</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4988</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.176666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4989</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3.1666666666666697E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4990</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4991</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.358333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>4992</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.228333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4993</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4994</v>
+      </c>
+      <c r="B30" s="2">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>4995</v>
+      </c>
+      <c r="B31" s="2">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3.8333333333333303E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4996</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>4997</v>
+      </c>
+      <c r="B33" s="2">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>4998</v>
+      </c>
+      <c r="B34" s="2">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>4999</v>
+      </c>
+      <c r="B35" s="2">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B36" s="2">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8285</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5001</v>
+      </c>
+      <c r="B37" s="2">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>5002</v>
+      </c>
+      <c r="B38" s="2">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>5003</v>
+      </c>
+      <c r="B39" s="2">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>5004</v>
+      </c>
+      <c r="B40" s="2">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.20166666666666699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>5005</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.64166666666666705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>5006</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>5007</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>5008</v>
+      </c>
+      <c r="B44" s="2">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>5009</v>
+      </c>
+      <c r="B45" s="2">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1.16666666666667E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>5010</v>
+      </c>
+      <c r="B46" s="2">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>5011</v>
+      </c>
+      <c r="B47" s="2">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>5012</v>
+      </c>
+      <c r="B48" s="2">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6.6666666666666697E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>5013</v>
+      </c>
+      <c r="B49" s="2">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>5014</v>
+      </c>
+      <c r="B50" s="2">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>5015</v>
+      </c>
+      <c r="B51" s="2">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>5016</v>
+      </c>
+      <c r="B52" s="2">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>5017</v>
+      </c>
+      <c r="B53" s="2">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>5018</v>
+      </c>
+      <c r="B54" s="2">
+        <v>57</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.21333333333333299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>5019</v>
+      </c>
+      <c r="B55" s="2">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>5020</v>
+      </c>
+      <c r="B56" s="2">
+        <v>59</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>5021</v>
+      </c>
+      <c r="B57" s="2">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>4</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>5022</v>
+      </c>
+      <c r="B58" s="2">
+        <v>61</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.41166666666666701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>5023</v>
+      </c>
+      <c r="B59" s="2">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>5024</v>
+      </c>
+      <c r="B60" s="2">
+        <v>63</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8284</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="2">
+        <v>2</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>5025</v>
+      </c>
+      <c r="B61" s="2">
+        <v>69</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>5026</v>
+      </c>
+      <c r="B62" s="2">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2">
+        <v>8288</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>5027</v>
+      </c>
+      <c r="B63" s="2">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="2">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>5028</v>
+      </c>
+      <c r="B64" s="2">
+        <v>72</v>
+      </c>
+      <c r="C64" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="2">
+        <v>5</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>5029</v>
+      </c>
+      <c r="B65" s="2">
+        <v>73</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>5030</v>
+      </c>
+      <c r="B66" s="2">
+        <v>74</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>5031</v>
+      </c>
+      <c r="B67" s="2">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>5032</v>
+      </c>
+      <c r="B68" s="2">
+        <v>76</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>5033</v>
+      </c>
+      <c r="B69" s="2">
+        <v>77</v>
+      </c>
+      <c r="C69" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="2">
+        <v>5</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>5034</v>
+      </c>
+      <c r="B70" s="2">
+        <v>78</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8286</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{EE22E1DF-FA6C-4E51-AF3C-3139A429C5BD}">
+          <x14:formula1>
+            <xm:f>_LISTS!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I70</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79BF43F-C8B3-486D-A14E-FB4EB4C59AA2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
